--- a/datasets/version_20230509/20230713GeospatialModel_20230713_edwin.xlsx
+++ b/datasets/version_20230509/20230713GeospatialModel_20230713_edwin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edwin\github\edwinkost\tritium\datasets\version_20230509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F8D8F-C759-4605-BDD7-1CCFAA11563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D85C73-1816-40B3-8EAE-AA1BFF1B8AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BC77A242-3BF1-4127-AA08-AF45CA6B146A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataset!$A$1:$AH$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">dataset_selected!$A$1:$L$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">dataset_selected!$A$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
     <author>tc={8DE773A3-712C-49CA-BC8F-EA8CF680E281}</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{8DE773A3-712C-49CA-BC8F-EA8CF680E281}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8DE773A3-712C-49CA-BC8F-EA8CF680E281}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="157">
   <si>
     <t>aet_p</t>
   </si>
@@ -539,14 +539,33 @@
   </si>
   <si>
     <t>site unique ids</t>
+  </si>
+  <si>
+    <t>dwt_m</t>
+  </si>
+  <si>
+    <t>check_pet_p*</t>
+  </si>
+  <si>
+    <t>p_mmpyr</t>
+  </si>
+  <si>
+    <t>pet_mmpyr</t>
+  </si>
+  <si>
+    <t>pet_p_ratio</t>
+  </si>
+  <si>
+    <t>Applicability_tau_yr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -609,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -630,9 +649,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,7 +993,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H1" dT="2023-07-13T08:03:49.21" personId="{E010F12A-618C-4E71-B8CB-48AF8F74FE3D}" id="{8DE773A3-712C-49CA-BC8F-EA8CF680E281}">
+  <threadedComment ref="F1" dT="2023-07-13T08:03:49.21" personId="{E010F12A-618C-4E71-B8CB-48AF8F74FE3D}" id="{8DE773A3-712C-49CA-BC8F-EA8CF680E281}">
     <text>PET from re-extracting values to points dated 20230713 (source HydroAtlas level9)</text>
   </threadedComment>
 </ThreadedComments>
@@ -5964,30 +5993,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A382C4-21AE-45C0-A9AF-608A045D46CB}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="11"/>
+    <col min="15" max="15" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -5995,37 +6026,31 @@
         <v>8</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>26</v>
       </c>
@@ -6033,37 +6058,32 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D2" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E2" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F2" s="11">
-        <v>750</v>
-      </c>
-      <c r="G2" s="11">
-        <v>619</v>
-      </c>
-      <c r="H2" s="11">
         <v>1037</v>
       </c>
+      <c r="G2" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H2" s="12">
+        <v>6</v>
+      </c>
       <c r="I2" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J2" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K2" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L2" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="14">
+        <f>I2-F2/E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>27</v>
       </c>
@@ -6071,37 +6091,32 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D3" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E3" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F3" s="11">
-        <v>750</v>
-      </c>
-      <c r="G3" s="11">
-        <v>619</v>
-      </c>
-      <c r="H3" s="11">
         <v>1037</v>
       </c>
+      <c r="G3" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H3" s="12">
+        <v>6</v>
+      </c>
       <c r="I3" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J3" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K3" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L3" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="14">
+        <f>I3-F3/E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>28</v>
       </c>
@@ -6109,37 +6124,32 @@
         <v>1</v>
       </c>
       <c r="C4" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D4" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E4" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F4" s="11">
-        <v>750</v>
-      </c>
-      <c r="G4" s="11">
-        <v>619</v>
-      </c>
-      <c r="H4" s="11">
         <v>1037</v>
       </c>
+      <c r="G4" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H4" s="12">
+        <v>4</v>
+      </c>
       <c r="I4" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J4" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K4" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L4" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="14">
+        <f>I4-F4/E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>29</v>
       </c>
@@ -6147,37 +6157,32 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D5" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E5" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F5" s="11">
-        <v>750</v>
-      </c>
-      <c r="G5" s="11">
-        <v>619</v>
-      </c>
-      <c r="H5" s="11">
         <v>1037</v>
       </c>
+      <c r="G5" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H5" s="12">
+        <v>9</v>
+      </c>
       <c r="I5" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J5" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K5" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L5" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="14">
+        <f>I5-F5/E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>30</v>
       </c>
@@ -6185,37 +6190,32 @@
         <v>1</v>
       </c>
       <c r="C6" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D6" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E6" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F6" s="11">
-        <v>750</v>
-      </c>
-      <c r="G6" s="11">
-        <v>619</v>
-      </c>
-      <c r="H6" s="11">
         <v>1037</v>
       </c>
+      <c r="G6" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H6" s="12">
+        <v>8</v>
+      </c>
       <c r="I6" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J6" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K6" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L6" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="14">
+        <f>I6-F6/E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>31</v>
       </c>
@@ -6223,37 +6223,32 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D7" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E7" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F7" s="11">
-        <v>750</v>
-      </c>
-      <c r="G7" s="11">
-        <v>619</v>
-      </c>
-      <c r="H7" s="11">
         <v>1037</v>
       </c>
+      <c r="G7" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H7" s="12">
+        <v>9</v>
+      </c>
       <c r="I7" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J7" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K7" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L7" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="14">
+        <f>I7-F7/E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>32</v>
       </c>
@@ -6261,37 +6256,32 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D8" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E8" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F8" s="11">
-        <v>750</v>
-      </c>
-      <c r="G8" s="11">
-        <v>619</v>
-      </c>
-      <c r="H8" s="11">
         <v>1037</v>
       </c>
+      <c r="G8" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H8" s="12">
+        <v>6</v>
+      </c>
       <c r="I8" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J8" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K8" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L8" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="14">
+        <f>I8-F8/E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>33</v>
       </c>
@@ -6299,37 +6289,32 @@
         <v>1</v>
       </c>
       <c r="C9" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D9" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E9" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F9" s="11">
-        <v>750</v>
-      </c>
-      <c r="G9" s="11">
-        <v>619</v>
-      </c>
-      <c r="H9" s="11">
         <v>1037</v>
       </c>
+      <c r="G9" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3</v>
+      </c>
       <c r="I9" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J9" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K9" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L9" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="14">
+        <f>I9-F9/E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>34</v>
       </c>
@@ -6337,37 +6322,32 @@
         <v>1</v>
       </c>
       <c r="C10" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D10" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E10" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F10" s="11">
-        <v>750</v>
-      </c>
-      <c r="G10" s="11">
-        <v>619</v>
-      </c>
-      <c r="H10" s="11">
         <v>1037</v>
       </c>
+      <c r="G10" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H10" s="12">
+        <v>-14.155623489129766</v>
+      </c>
       <c r="I10" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J10" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K10" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L10" s="12">
-        <v>-14.155623489129766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="14">
+        <f>I10-F10/E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>35</v>
       </c>
@@ -6375,37 +6355,32 @@
         <v>1</v>
       </c>
       <c r="C11" s="11">
-        <v>2</v>
+        <v>-37.67</v>
       </c>
       <c r="D11" s="11">
-        <v>-37.67</v>
+        <v>140.5</v>
       </c>
       <c r="E11" s="11">
-        <v>140.5</v>
+        <v>750</v>
       </c>
       <c r="F11" s="11">
-        <v>750</v>
-      </c>
-      <c r="G11" s="11">
-        <v>619</v>
-      </c>
-      <c r="H11" s="11">
         <v>1037</v>
       </c>
+      <c r="G11" s="16">
+        <v>24.671600000000002</v>
+      </c>
+      <c r="H11" s="12">
+        <v>-14.516959883527306</v>
+      </c>
       <c r="I11" s="11">
-        <v>0.82533333333333336</v>
-      </c>
-      <c r="J11" s="11">
         <v>1.3826666666666667</v>
       </c>
-      <c r="K11" s="11">
-        <v>24.671600000000002</v>
-      </c>
-      <c r="L11" s="12">
-        <v>-14.516959883527306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="14">
+        <f>I11-F11/E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>16</v>
       </c>
@@ -6413,37 +6388,32 @@
         <v>2</v>
       </c>
       <c r="C12" s="11">
-        <v>3</v>
+        <v>-27.22</v>
       </c>
       <c r="D12" s="11">
-        <v>-27.22</v>
+        <v>23.2</v>
       </c>
       <c r="E12" s="11">
-        <v>23.2</v>
+        <v>466</v>
       </c>
       <c r="F12" s="11">
-        <v>466</v>
-      </c>
-      <c r="G12" s="11">
-        <v>394</v>
-      </c>
-      <c r="H12" s="11">
         <v>1625</v>
       </c>
+      <c r="G12" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="H12" s="12">
+        <v>13</v>
+      </c>
       <c r="I12" s="11">
-        <v>0.84549356223175964</v>
-      </c>
-      <c r="J12" s="11">
         <v>3.4871244635193133</v>
       </c>
-      <c r="K12" s="11">
-        <v>48.9</v>
-      </c>
-      <c r="L12" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="14">
+        <f>I12-F12/E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>17</v>
       </c>
@@ -6451,37 +6421,32 @@
         <v>2</v>
       </c>
       <c r="C13" s="11">
-        <v>3</v>
+        <v>-27.22</v>
       </c>
       <c r="D13" s="11">
-        <v>-27.22</v>
+        <v>23.2</v>
       </c>
       <c r="E13" s="11">
-        <v>23.2</v>
+        <v>466</v>
       </c>
       <c r="F13" s="11">
-        <v>466</v>
-      </c>
-      <c r="G13" s="11">
-        <v>394</v>
-      </c>
-      <c r="H13" s="11">
         <v>1625</v>
       </c>
+      <c r="G13" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="H13" s="12">
+        <v>7</v>
+      </c>
       <c r="I13" s="11">
-        <v>0.84549356223175964</v>
-      </c>
-      <c r="J13" s="11">
         <v>3.4871244635193133</v>
       </c>
-      <c r="K13" s="11">
-        <v>48.9</v>
-      </c>
-      <c r="L13" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="14">
+        <f>I13-F13/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>18</v>
       </c>
@@ -6489,37 +6454,32 @@
         <v>2</v>
       </c>
       <c r="C14" s="11">
-        <v>3</v>
+        <v>-27.22</v>
       </c>
       <c r="D14" s="11">
-        <v>-27.22</v>
+        <v>23.2</v>
       </c>
       <c r="E14" s="11">
-        <v>23.2</v>
+        <v>466</v>
       </c>
       <c r="F14" s="11">
-        <v>466</v>
-      </c>
-      <c r="G14" s="11">
-        <v>394</v>
-      </c>
-      <c r="H14" s="11">
         <v>1625</v>
       </c>
+      <c r="G14" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="H14" s="12">
+        <v>9</v>
+      </c>
       <c r="I14" s="11">
-        <v>0.84549356223175964</v>
-      </c>
-      <c r="J14" s="11">
         <v>3.4871244635193133</v>
       </c>
-      <c r="K14" s="11">
-        <v>48.9</v>
-      </c>
-      <c r="L14" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="14">
+        <f>I14-F14/E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>19</v>
       </c>
@@ -6527,37 +6487,32 @@
         <v>2</v>
       </c>
       <c r="C15" s="11">
-        <v>3</v>
+        <v>-27.22</v>
       </c>
       <c r="D15" s="11">
-        <v>-27.22</v>
+        <v>23.2</v>
       </c>
       <c r="E15" s="11">
-        <v>23.2</v>
+        <v>466</v>
       </c>
       <c r="F15" s="11">
-        <v>466</v>
-      </c>
-      <c r="G15" s="11">
-        <v>394</v>
-      </c>
-      <c r="H15" s="11">
         <v>1625</v>
       </c>
+      <c r="G15" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="H15" s="12">
+        <v>10</v>
+      </c>
       <c r="I15" s="11">
-        <v>0.84549356223175964</v>
-      </c>
-      <c r="J15" s="11">
         <v>3.4871244635193133</v>
       </c>
-      <c r="K15" s="11">
-        <v>48.9</v>
-      </c>
-      <c r="L15" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="14">
+        <f>I15-F15/E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>20</v>
       </c>
@@ -6565,37 +6520,32 @@
         <v>2</v>
       </c>
       <c r="C16" s="11">
-        <v>3</v>
+        <v>-27.22</v>
       </c>
       <c r="D16" s="11">
-        <v>-27.22</v>
+        <v>23.2</v>
       </c>
       <c r="E16" s="11">
-        <v>23.2</v>
+        <v>466</v>
       </c>
       <c r="F16" s="11">
-        <v>466</v>
-      </c>
-      <c r="G16" s="11">
-        <v>394</v>
-      </c>
-      <c r="H16" s="11">
         <v>1625</v>
       </c>
+      <c r="G16" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="H16" s="12">
+        <v>-16.487001282204119</v>
+      </c>
       <c r="I16" s="11">
-        <v>0.84549356223175964</v>
-      </c>
-      <c r="J16" s="11">
         <v>3.4871244635193133</v>
       </c>
-      <c r="K16" s="11">
-        <v>48.9</v>
-      </c>
-      <c r="L16" s="12">
-        <v>-16.487001282204119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="14">
+        <f>I16-F16/E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>5</v>
       </c>
@@ -6603,37 +6553,32 @@
         <v>3</v>
       </c>
       <c r="C17" s="11">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="D17" s="11">
-        <v>15.7</v>
+        <v>-16.32</v>
       </c>
       <c r="E17" s="11">
-        <v>-16.32</v>
+        <v>345</v>
       </c>
       <c r="F17" s="11">
-        <v>345</v>
-      </c>
-      <c r="G17" s="11">
-        <v>290</v>
-      </c>
-      <c r="H17" s="11">
         <v>1753</v>
       </c>
+      <c r="G17" s="16">
+        <v>34.2209</v>
+      </c>
+      <c r="H17" s="12">
+        <v>25.602198406073967</v>
+      </c>
       <c r="I17" s="11">
-        <v>0.84057971014492749</v>
-      </c>
-      <c r="J17" s="11">
         <v>5.0811594202898549</v>
       </c>
-      <c r="K17" s="11">
-        <v>34.2209</v>
-      </c>
-      <c r="L17" s="12">
-        <v>25.602198406073967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="14">
+        <f>I17-F17/E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>7</v>
       </c>
@@ -6641,37 +6586,32 @@
         <v>4</v>
       </c>
       <c r="C18" s="11">
-        <v>22</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="D18" s="11">
-        <v>34.450000000000003</v>
+        <v>-117.33</v>
       </c>
       <c r="E18" s="11">
-        <v>-117.33</v>
+        <v>556</v>
       </c>
       <c r="F18" s="11">
-        <v>556</v>
-      </c>
-      <c r="G18" s="11">
-        <v>453</v>
-      </c>
-      <c r="H18" s="11">
         <v>1356</v>
       </c>
+      <c r="G18" s="16">
+        <v>76.766900000000007</v>
+      </c>
+      <c r="H18" s="12">
+        <v>12</v>
+      </c>
       <c r="I18" s="11">
-        <v>0.81474820143884896</v>
-      </c>
-      <c r="J18" s="11">
         <v>2.4388489208633093</v>
       </c>
-      <c r="K18" s="11">
-        <v>76.766900000000007</v>
-      </c>
-      <c r="L18" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="14">
+        <f>I18-F18/E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2</v>
       </c>
@@ -6679,37 +6619,32 @@
         <v>5</v>
       </c>
       <c r="C19" s="11">
-        <v>20</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="D19" s="11">
-        <v>34.619999999999997</v>
+        <v>32.97</v>
       </c>
       <c r="E19" s="11">
-        <v>32.97</v>
+        <v>426</v>
       </c>
       <c r="F19" s="11">
-        <v>426</v>
-      </c>
-      <c r="G19" s="11">
-        <v>360</v>
-      </c>
-      <c r="H19" s="11">
         <v>1299</v>
       </c>
+      <c r="G19" s="16">
+        <v>12.6713</v>
+      </c>
+      <c r="H19" s="12">
+        <v>-41.569065515074044</v>
+      </c>
       <c r="I19" s="11">
-        <v>0.84507042253521125</v>
-      </c>
-      <c r="J19" s="11">
         <v>3.0492957746478875</v>
       </c>
-      <c r="K19" s="11">
-        <v>12.6713</v>
-      </c>
-      <c r="L19" s="12">
-        <v>-41.569065515074044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="14">
+        <f>I19-F19/E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -6717,37 +6652,32 @@
         <v>6</v>
       </c>
       <c r="C20" s="11">
-        <v>2</v>
+        <v>35.17</v>
       </c>
       <c r="D20" s="11">
-        <v>35.17</v>
+        <v>107.8</v>
       </c>
       <c r="E20" s="11">
-        <v>107.8</v>
+        <v>602</v>
       </c>
       <c r="F20" s="11">
-        <v>602</v>
-      </c>
-      <c r="G20" s="11">
-        <v>514</v>
-      </c>
-      <c r="H20" s="11">
         <v>1005</v>
       </c>
+      <c r="G20" s="16">
+        <v>194.821</v>
+      </c>
+      <c r="H20" s="12">
+        <v>63</v>
+      </c>
       <c r="I20" s="11">
-        <v>0.85382059800664456</v>
-      </c>
-      <c r="J20" s="11">
         <v>1.669435215946844</v>
       </c>
-      <c r="K20" s="11">
-        <v>194.821</v>
-      </c>
-      <c r="L20" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="14">
+        <f>I20-F20/E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -6755,37 +6685,32 @@
         <v>6</v>
       </c>
       <c r="C21" s="11">
-        <v>2</v>
+        <v>35.17</v>
       </c>
       <c r="D21" s="11">
-        <v>35.17</v>
+        <v>107.8</v>
       </c>
       <c r="E21" s="11">
-        <v>107.8</v>
+        <v>602</v>
       </c>
       <c r="F21" s="11">
-        <v>602</v>
-      </c>
-      <c r="G21" s="11">
-        <v>514</v>
-      </c>
-      <c r="H21" s="11">
         <v>1005</v>
       </c>
+      <c r="G21" s="16">
+        <v>194.821</v>
+      </c>
+      <c r="H21" s="12">
+        <v>74</v>
+      </c>
       <c r="I21" s="11">
-        <v>0.85382059800664456</v>
-      </c>
-      <c r="J21" s="11">
         <v>1.669435215946844</v>
       </c>
-      <c r="K21" s="11">
-        <v>194.821</v>
-      </c>
-      <c r="L21" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="14">
+        <f>I21-F21/E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>14</v>
       </c>
@@ -6793,37 +6718,32 @@
         <v>6</v>
       </c>
       <c r="C22" s="11">
-        <v>2</v>
+        <v>35.17</v>
       </c>
       <c r="D22" s="11">
-        <v>35.17</v>
+        <v>107.8</v>
       </c>
       <c r="E22" s="11">
-        <v>107.8</v>
+        <v>602</v>
       </c>
       <c r="F22" s="11">
-        <v>602</v>
-      </c>
-      <c r="G22" s="11">
-        <v>514</v>
-      </c>
-      <c r="H22" s="11">
         <v>1005</v>
       </c>
+      <c r="G22" s="16">
+        <v>194.821</v>
+      </c>
+      <c r="H22" s="12">
+        <v>74</v>
+      </c>
       <c r="I22" s="11">
-        <v>0.85382059800664456</v>
-      </c>
-      <c r="J22" s="11">
         <v>1.669435215946844</v>
       </c>
-      <c r="K22" s="11">
-        <v>194.821</v>
-      </c>
-      <c r="L22" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="14">
+        <f>I22-F22/E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>15</v>
       </c>
@@ -6831,37 +6751,32 @@
         <v>6</v>
       </c>
       <c r="C23" s="11">
-        <v>2</v>
+        <v>35.17</v>
       </c>
       <c r="D23" s="11">
-        <v>35.17</v>
+        <v>107.8</v>
       </c>
       <c r="E23" s="11">
-        <v>107.8</v>
+        <v>602</v>
       </c>
       <c r="F23" s="11">
-        <v>602</v>
-      </c>
-      <c r="G23" s="11">
-        <v>514</v>
-      </c>
-      <c r="H23" s="11">
         <v>1005</v>
       </c>
+      <c r="G23" s="16">
+        <v>194.821</v>
+      </c>
+      <c r="H23" s="12">
+        <v>71</v>
+      </c>
       <c r="I23" s="11">
-        <v>0.85382059800664456</v>
-      </c>
-      <c r="J23" s="11">
         <v>1.669435215946844</v>
       </c>
-      <c r="K23" s="11">
-        <v>194.821</v>
-      </c>
-      <c r="L23" s="12">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="14">
+        <f>I23-F23/E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>37</v>
       </c>
@@ -6869,37 +6784,32 @@
         <v>6</v>
       </c>
       <c r="C24" s="11">
-        <v>2</v>
+        <v>35.17</v>
       </c>
       <c r="D24" s="11">
-        <v>35.17</v>
+        <v>107.8</v>
       </c>
       <c r="E24" s="11">
-        <v>107.8</v>
+        <v>602</v>
       </c>
       <c r="F24" s="11">
-        <v>602</v>
-      </c>
-      <c r="G24" s="11">
-        <v>514</v>
-      </c>
-      <c r="H24" s="11">
         <v>1005</v>
       </c>
+      <c r="G24" s="16">
+        <v>194.821</v>
+      </c>
+      <c r="H24" s="12">
+        <v>71</v>
+      </c>
       <c r="I24" s="11">
-        <v>0.85382059800664456</v>
-      </c>
-      <c r="J24" s="11">
         <v>1.669435215946844</v>
       </c>
-      <c r="K24" s="11">
-        <v>194.821</v>
-      </c>
-      <c r="L24" s="12">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="14">
+        <f>I24-F24/E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44</v>
       </c>
@@ -6907,37 +6817,32 @@
         <v>7</v>
       </c>
       <c r="C25" s="11">
-        <v>1</v>
+        <v>35.5</v>
       </c>
       <c r="D25" s="11">
-        <v>35.5</v>
+        <v>107.65</v>
       </c>
       <c r="E25" s="11">
-        <v>107.65</v>
+        <v>497</v>
       </c>
       <c r="F25" s="11">
-        <v>497</v>
-      </c>
-      <c r="G25" s="11">
-        <v>427</v>
-      </c>
-      <c r="H25" s="11">
         <v>983</v>
       </c>
+      <c r="G25" s="16">
+        <v>151.601</v>
+      </c>
+      <c r="H25" s="12">
+        <v>55</v>
+      </c>
       <c r="I25" s="11">
-        <v>0.85915492957746475</v>
-      </c>
-      <c r="J25" s="11">
         <v>1.9778672032193159</v>
       </c>
-      <c r="K25" s="11">
-        <v>151.601</v>
-      </c>
-      <c r="L25" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="14">
+        <f>I25-F25/E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>42</v>
       </c>
@@ -6945,37 +6850,32 @@
         <v>8</v>
       </c>
       <c r="C26" s="11">
-        <v>0</v>
+        <v>35.83</v>
       </c>
       <c r="D26" s="11">
-        <v>35.83</v>
+        <v>109.5</v>
       </c>
       <c r="E26" s="11">
-        <v>109.5</v>
+        <v>546</v>
       </c>
       <c r="F26" s="11">
-        <v>546</v>
-      </c>
-      <c r="G26" s="11">
-        <v>467</v>
-      </c>
-      <c r="H26" s="11">
         <v>1024</v>
       </c>
+      <c r="G26" s="16">
+        <v>104.42</v>
+      </c>
+      <c r="H26" s="12">
+        <v>74</v>
+      </c>
       <c r="I26" s="11">
-        <v>0.85531135531135527</v>
-      </c>
-      <c r="J26" s="11">
         <v>1.8754578754578755</v>
       </c>
-      <c r="K26" s="11">
-        <v>104.42</v>
-      </c>
-      <c r="L26" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="14">
+        <f>I26-F26/E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>6</v>
       </c>
@@ -6983,37 +6883,32 @@
         <v>9</v>
       </c>
       <c r="C27" s="11">
-        <v>0</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="D27" s="11">
-        <v>36.770000000000003</v>
+        <v>-116.7</v>
       </c>
       <c r="E27" s="11">
-        <v>-116.7</v>
+        <v>143</v>
       </c>
       <c r="F27" s="11">
-        <v>143</v>
-      </c>
-      <c r="G27" s="11">
-        <v>123</v>
-      </c>
-      <c r="H27" s="11">
         <v>1398</v>
       </c>
+      <c r="G27" s="16">
+        <v>140.40700000000001</v>
+      </c>
+      <c r="H27" s="12">
+        <v>74</v>
+      </c>
       <c r="I27" s="11">
-        <v>0.8601398601398601</v>
-      </c>
-      <c r="J27" s="11">
         <v>9.7762237762237767</v>
       </c>
-      <c r="K27" s="11">
-        <v>140.40700000000001</v>
-      </c>
-      <c r="L27" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="14">
+        <f>I27-F27/E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>3</v>
       </c>
@@ -7021,37 +6916,32 @@
         <v>10</v>
       </c>
       <c r="C28" s="11">
-        <v>0</v>
+        <v>36.93</v>
       </c>
       <c r="D28" s="11">
-        <v>36.93</v>
+        <v>-116.48</v>
       </c>
       <c r="E28" s="11">
-        <v>-116.48</v>
+        <v>186</v>
       </c>
       <c r="F28" s="11">
-        <v>186</v>
-      </c>
-      <c r="G28" s="11">
-        <v>161</v>
-      </c>
-      <c r="H28" s="11">
         <v>1307</v>
       </c>
+      <c r="G28" s="16">
+        <v>623.61599999999999</v>
+      </c>
+      <c r="H28" s="12">
+        <v>36</v>
+      </c>
       <c r="I28" s="11">
-        <v>0.86559139784946237</v>
-      </c>
-      <c r="J28" s="11">
         <v>7.0268817204301079</v>
       </c>
-      <c r="K28" s="11">
-        <v>623.61599999999999</v>
-      </c>
-      <c r="L28" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="14">
+        <f>I28-F28/E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>4</v>
       </c>
@@ -7059,37 +6949,32 @@
         <v>10</v>
       </c>
       <c r="C29" s="11">
-        <v>0</v>
+        <v>36.93</v>
       </c>
       <c r="D29" s="11">
-        <v>36.93</v>
+        <v>-116.48</v>
       </c>
       <c r="E29" s="11">
-        <v>-116.48</v>
+        <v>186</v>
       </c>
       <c r="F29" s="11">
-        <v>186</v>
-      </c>
-      <c r="G29" s="11">
-        <v>161</v>
-      </c>
-      <c r="H29" s="11">
         <v>1307</v>
       </c>
+      <c r="G29" s="16">
+        <v>623.61599999999999</v>
+      </c>
+      <c r="H29" s="12">
+        <v>39</v>
+      </c>
       <c r="I29" s="11">
-        <v>0.86559139784946237</v>
-      </c>
-      <c r="J29" s="11">
         <v>7.0268817204301079</v>
       </c>
-      <c r="K29" s="11">
-        <v>623.61599999999999</v>
-      </c>
-      <c r="L29" s="12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="14">
+        <f>I29-F29/E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>38</v>
       </c>
@@ -7097,37 +6982,32 @@
         <v>11</v>
       </c>
       <c r="C30" s="11">
-        <v>0</v>
+        <v>37.17</v>
       </c>
       <c r="D30" s="11">
-        <v>37.17</v>
+        <v>110.25</v>
       </c>
       <c r="E30" s="11">
-        <v>110.25</v>
+        <v>497</v>
       </c>
       <c r="F30" s="11">
-        <v>497</v>
-      </c>
-      <c r="G30" s="11">
-        <v>425</v>
-      </c>
-      <c r="H30" s="11">
         <v>1104</v>
       </c>
+      <c r="G30" s="16">
+        <v>222.15</v>
+      </c>
+      <c r="H30" s="12">
+        <v>81</v>
+      </c>
       <c r="I30" s="11">
-        <v>0.85513078470824955</v>
-      </c>
-      <c r="J30" s="11">
         <v>2.2213279678068409</v>
       </c>
-      <c r="K30" s="11">
-        <v>222.15</v>
-      </c>
-      <c r="L30" s="12">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="14">
+        <f>I30-F30/E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>39</v>
       </c>
@@ -7135,37 +7015,32 @@
         <v>11</v>
       </c>
       <c r="C31" s="11">
-        <v>0</v>
+        <v>37.17</v>
       </c>
       <c r="D31" s="11">
-        <v>37.17</v>
+        <v>110.25</v>
       </c>
       <c r="E31" s="11">
-        <v>110.25</v>
+        <v>497</v>
       </c>
       <c r="F31" s="11">
-        <v>497</v>
-      </c>
-      <c r="G31" s="11">
-        <v>425</v>
-      </c>
-      <c r="H31" s="11">
         <v>1104</v>
       </c>
+      <c r="G31" s="16">
+        <v>222.15</v>
+      </c>
+      <c r="H31" s="12">
+        <v>78</v>
+      </c>
       <c r="I31" s="11">
-        <v>0.85513078470824955</v>
-      </c>
-      <c r="J31" s="11">
         <v>2.2213279678068409</v>
       </c>
-      <c r="K31" s="11">
-        <v>222.15</v>
-      </c>
-      <c r="L31" s="12">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="14">
+        <f>I31-F31/E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>40</v>
       </c>
@@ -7173,37 +7048,32 @@
         <v>11</v>
       </c>
       <c r="C32" s="11">
-        <v>0</v>
+        <v>37.17</v>
       </c>
       <c r="D32" s="11">
-        <v>37.17</v>
+        <v>110.25</v>
       </c>
       <c r="E32" s="11">
-        <v>110.25</v>
+        <v>497</v>
       </c>
       <c r="F32" s="11">
-        <v>497</v>
-      </c>
-      <c r="G32" s="11">
-        <v>425</v>
-      </c>
-      <c r="H32" s="11">
         <v>1104</v>
       </c>
+      <c r="G32" s="16">
+        <v>222.15</v>
+      </c>
+      <c r="H32" s="12">
+        <v>79</v>
+      </c>
       <c r="I32" s="11">
-        <v>0.85513078470824955</v>
-      </c>
-      <c r="J32" s="11">
         <v>2.2213279678068409</v>
       </c>
-      <c r="K32" s="11">
-        <v>222.15</v>
-      </c>
-      <c r="L32" s="12">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="14">
+        <f>I32-F32/E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>41</v>
       </c>
@@ -7211,37 +7081,32 @@
         <v>11</v>
       </c>
       <c r="C33" s="11">
-        <v>0</v>
+        <v>37.17</v>
       </c>
       <c r="D33" s="11">
-        <v>37.17</v>
+        <v>110.25</v>
       </c>
       <c r="E33" s="11">
-        <v>110.25</v>
+        <v>497</v>
       </c>
       <c r="F33" s="11">
-        <v>497</v>
-      </c>
-      <c r="G33" s="11">
-        <v>425</v>
-      </c>
-      <c r="H33" s="11">
         <v>1104</v>
       </c>
+      <c r="G33" s="16">
+        <v>222.15</v>
+      </c>
+      <c r="H33" s="12">
+        <v>75</v>
+      </c>
       <c r="I33" s="11">
-        <v>0.85513078470824955</v>
-      </c>
-      <c r="J33" s="11">
         <v>2.2213279678068409</v>
       </c>
-      <c r="K33" s="11">
-        <v>222.15</v>
-      </c>
-      <c r="L33" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="14">
+        <f>I33-F33/E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>8</v>
       </c>
@@ -7249,37 +7114,32 @@
         <v>12</v>
       </c>
       <c r="C34" s="11">
-        <v>25</v>
+        <v>37.68</v>
       </c>
       <c r="D34" s="11">
-        <v>37.68</v>
+        <v>113.68</v>
       </c>
       <c r="E34" s="11">
-        <v>113.68</v>
+        <v>495</v>
       </c>
       <c r="F34" s="11">
-        <v>495</v>
-      </c>
-      <c r="G34" s="11">
-        <v>425</v>
-      </c>
-      <c r="H34" s="11">
         <v>1043</v>
       </c>
+      <c r="G34" s="16">
+        <v>115.499</v>
+      </c>
+      <c r="H34" s="12">
+        <v>68</v>
+      </c>
       <c r="I34" s="11">
-        <v>0.85858585858585856</v>
-      </c>
-      <c r="J34" s="11">
         <v>2.1070707070707071</v>
       </c>
-      <c r="K34" s="11">
-        <v>115.499</v>
-      </c>
-      <c r="L34" s="12">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="14">
+        <f>I34-F34/E34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>9</v>
       </c>
@@ -7287,37 +7147,32 @@
         <v>12</v>
       </c>
       <c r="C35" s="11">
-        <v>25</v>
+        <v>37.68</v>
       </c>
       <c r="D35" s="11">
-        <v>37.68</v>
+        <v>113.68</v>
       </c>
       <c r="E35" s="11">
-        <v>113.68</v>
+        <v>495</v>
       </c>
       <c r="F35" s="11">
-        <v>495</v>
-      </c>
-      <c r="G35" s="11">
-        <v>425</v>
-      </c>
-      <c r="H35" s="11">
         <v>1043</v>
       </c>
+      <c r="G35" s="16">
+        <v>115.499</v>
+      </c>
+      <c r="H35" s="12">
+        <v>76</v>
+      </c>
       <c r="I35" s="11">
-        <v>0.85858585858585856</v>
-      </c>
-      <c r="J35" s="11">
         <v>2.1070707070707071</v>
       </c>
-      <c r="K35" s="11">
-        <v>115.499</v>
-      </c>
-      <c r="L35" s="12">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="14">
+        <f>I35-F35/E35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>43</v>
       </c>
@@ -7325,37 +7180,32 @@
         <v>13</v>
       </c>
       <c r="C36" s="11">
-        <v>3</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D36" s="11">
-        <v>38.799999999999997</v>
+        <v>110.37</v>
       </c>
       <c r="E36" s="11">
-        <v>110.37</v>
+        <v>412</v>
       </c>
       <c r="F36" s="11">
-        <v>412</v>
-      </c>
-      <c r="G36" s="11">
-        <v>357</v>
-      </c>
-      <c r="H36" s="11">
         <v>974</v>
       </c>
+      <c r="G36" s="16">
+        <v>121.5</v>
+      </c>
+      <c r="H36" s="12">
+        <v>83</v>
+      </c>
       <c r="I36" s="11">
-        <v>0.86650485436893199</v>
-      </c>
-      <c r="J36" s="11">
         <v>2.3640776699029127</v>
       </c>
-      <c r="K36" s="11">
-        <v>121.5</v>
-      </c>
-      <c r="L36" s="12">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="14">
+        <f>I36-F36/E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>10</v>
       </c>
@@ -7363,37 +7213,32 @@
         <v>14</v>
       </c>
       <c r="C37" s="11">
-        <v>0</v>
+        <v>42.87</v>
       </c>
       <c r="D37" s="11">
-        <v>42.87</v>
+        <v>118.93</v>
       </c>
       <c r="E37" s="11">
-        <v>118.93</v>
+        <v>415</v>
       </c>
       <c r="F37" s="11">
-        <v>415</v>
-      </c>
-      <c r="G37" s="11">
-        <v>363</v>
-      </c>
-      <c r="H37" s="11">
         <v>855</v>
       </c>
+      <c r="G37" s="16">
+        <v>86.638000000000005</v>
+      </c>
+      <c r="H37" s="12">
+        <v>71</v>
+      </c>
       <c r="I37" s="11">
-        <v>0.87469879518072291</v>
-      </c>
-      <c r="J37" s="11">
         <v>2.0602409638554215</v>
       </c>
-      <c r="K37" s="11">
-        <v>86.638000000000005</v>
-      </c>
-      <c r="L37" s="12">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="14">
+        <f>I37-F37/E37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>11</v>
       </c>
@@ -7401,37 +7246,32 @@
         <v>14</v>
       </c>
       <c r="C38" s="11">
-        <v>0</v>
+        <v>42.87</v>
       </c>
       <c r="D38" s="11">
-        <v>42.87</v>
+        <v>118.93</v>
       </c>
       <c r="E38" s="11">
-        <v>118.93</v>
+        <v>415</v>
       </c>
       <c r="F38" s="11">
-        <v>415</v>
-      </c>
-      <c r="G38" s="11">
-        <v>363</v>
-      </c>
-      <c r="H38" s="11">
         <v>855</v>
       </c>
+      <c r="G38" s="16">
+        <v>86.638000000000005</v>
+      </c>
+      <c r="H38" s="12">
+        <v>77</v>
+      </c>
       <c r="I38" s="11">
-        <v>0.87469879518072291</v>
-      </c>
-      <c r="J38" s="11">
         <v>2.0602409638554215</v>
       </c>
-      <c r="K38" s="11">
-        <v>86.638000000000005</v>
-      </c>
-      <c r="L38" s="12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="14">
+        <f>I38-F38/E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>22</v>
       </c>
@@ -7439,37 +7279,32 @@
         <v>15</v>
       </c>
       <c r="C39" s="11">
-        <v>2</v>
+        <v>50.9</v>
       </c>
       <c r="D39" s="11">
-        <v>50.9</v>
+        <v>-1.98</v>
       </c>
       <c r="E39" s="11">
-        <v>-1.98</v>
+        <v>804</v>
       </c>
       <c r="F39" s="11">
-        <v>804</v>
-      </c>
-      <c r="G39" s="11">
-        <v>531</v>
-      </c>
-      <c r="H39" s="11">
         <v>692</v>
       </c>
+      <c r="G39" s="16">
+        <v>25.7713</v>
+      </c>
+      <c r="H39" s="12">
+        <v>-33.166438083026151</v>
+      </c>
       <c r="I39" s="11">
-        <v>0.66044776119402981</v>
-      </c>
-      <c r="J39" s="11">
         <v>0.86069651741293529</v>
       </c>
-      <c r="K39" s="11">
-        <v>25.7713</v>
-      </c>
-      <c r="L39" s="12">
-        <v>-33.166438083026151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="14">
+        <f>I39-F39/E39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>24</v>
       </c>
@@ -7477,37 +7312,32 @@
         <v>15</v>
       </c>
       <c r="C40" s="11">
-        <v>2</v>
+        <v>50.9</v>
       </c>
       <c r="D40" s="11">
-        <v>50.9</v>
+        <v>-1.98</v>
       </c>
       <c r="E40" s="11">
-        <v>-1.98</v>
+        <v>804</v>
       </c>
       <c r="F40" s="11">
-        <v>804</v>
-      </c>
-      <c r="G40" s="11">
-        <v>531</v>
-      </c>
-      <c r="H40" s="11">
         <v>692</v>
       </c>
+      <c r="G40" s="16">
+        <v>25.7713</v>
+      </c>
+      <c r="H40" s="12">
+        <v>-25.344929657834882</v>
+      </c>
       <c r="I40" s="11">
-        <v>0.66044776119402981</v>
-      </c>
-      <c r="J40" s="11">
         <v>0.86069651741293529</v>
       </c>
-      <c r="K40" s="11">
-        <v>25.7713</v>
-      </c>
-      <c r="L40" s="12">
-        <v>-25.344929657834882</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="14">
+        <f>I40-F40/E40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>25</v>
       </c>
@@ -7515,37 +7345,32 @@
         <v>15</v>
       </c>
       <c r="C41" s="11">
-        <v>2</v>
+        <v>50.9</v>
       </c>
       <c r="D41" s="11">
-        <v>50.9</v>
+        <v>-1.98</v>
       </c>
       <c r="E41" s="11">
-        <v>-1.98</v>
+        <v>804</v>
       </c>
       <c r="F41" s="11">
-        <v>804</v>
-      </c>
-      <c r="G41" s="11">
-        <v>531</v>
-      </c>
-      <c r="H41" s="11">
         <v>692</v>
       </c>
+      <c r="G41" s="16">
+        <v>25.7713</v>
+      </c>
+      <c r="H41" s="12">
+        <v>-24.222810371212972</v>
+      </c>
       <c r="I41" s="11">
-        <v>0.66044776119402981</v>
-      </c>
-      <c r="J41" s="11">
         <v>0.86069651741293529</v>
       </c>
-      <c r="K41" s="11">
-        <v>25.7713</v>
-      </c>
-      <c r="L41" s="12">
-        <v>-24.222810371212972</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="14">
+        <f>I41-F41/E41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>36</v>
       </c>
@@ -7553,37 +7378,32 @@
         <v>15</v>
       </c>
       <c r="C42" s="11">
-        <v>2</v>
+        <v>50.9</v>
       </c>
       <c r="D42" s="11">
-        <v>50.9</v>
+        <v>-1.98</v>
       </c>
       <c r="E42" s="11">
-        <v>-1.98</v>
+        <v>804</v>
       </c>
       <c r="F42" s="11">
-        <v>804</v>
-      </c>
-      <c r="G42" s="11">
-        <v>531</v>
-      </c>
-      <c r="H42" s="11">
         <v>692</v>
       </c>
+      <c r="G42" s="16">
+        <v>25.7713</v>
+      </c>
+      <c r="H42" s="12">
+        <v>-31.540306240391828</v>
+      </c>
       <c r="I42" s="11">
-        <v>0.66044776119402981</v>
-      </c>
-      <c r="J42" s="11">
         <v>0.86069651741293529</v>
       </c>
-      <c r="K42" s="11">
-        <v>25.7713</v>
-      </c>
-      <c r="L42" s="12">
-        <v>-31.540306240391828</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="14">
+        <f>I42-F42/E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>1</v>
       </c>
@@ -7591,37 +7411,32 @@
         <v>16</v>
       </c>
       <c r="C43" s="11">
-        <v>1</v>
+        <v>51.48</v>
       </c>
       <c r="D43" s="11">
-        <v>51.48</v>
+        <v>-1.4</v>
       </c>
       <c r="E43" s="11">
-        <v>-1.4</v>
+        <v>706</v>
       </c>
       <c r="F43" s="11">
-        <v>706</v>
-      </c>
-      <c r="G43" s="11">
-        <v>513</v>
-      </c>
-      <c r="H43" s="11">
         <v>678</v>
       </c>
+      <c r="G43" s="16">
+        <v>45.347999999999999</v>
+      </c>
+      <c r="H43" s="12">
+        <v>-2.7489095441462723</v>
+      </c>
       <c r="I43" s="11">
-        <v>0.72662889518413598</v>
-      </c>
-      <c r="J43" s="11">
         <v>0.96033994334277617</v>
       </c>
-      <c r="K43" s="11">
-        <v>45.347999999999999</v>
-      </c>
-      <c r="L43" s="12">
-        <v>-2.7489095441462723</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="14">
+        <f>I43-F43/E43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>23</v>
       </c>
@@ -7629,37 +7444,32 @@
         <v>16</v>
       </c>
       <c r="C44" s="11">
-        <v>1</v>
+        <v>51.48</v>
       </c>
       <c r="D44" s="11">
-        <v>51.48</v>
+        <v>-1.4</v>
       </c>
       <c r="E44" s="11">
-        <v>-1.4</v>
+        <v>706</v>
       </c>
       <c r="F44" s="11">
-        <v>706</v>
-      </c>
-      <c r="G44" s="11">
-        <v>513</v>
-      </c>
-      <c r="H44" s="11">
         <v>678</v>
       </c>
+      <c r="G44" s="16">
+        <v>45.347999999999999</v>
+      </c>
+      <c r="H44" s="12">
+        <v>-4.9626232494008491</v>
+      </c>
       <c r="I44" s="11">
-        <v>0.72662889518413598</v>
-      </c>
-      <c r="J44" s="11">
         <v>0.96033994334277617</v>
       </c>
-      <c r="K44" s="11">
-        <v>45.347999999999999</v>
-      </c>
-      <c r="L44" s="12">
-        <v>-4.9626232494008491</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="14">
+        <f>I44-F44/E44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>21</v>
       </c>
@@ -7667,34 +7477,29 @@
         <v>17</v>
       </c>
       <c r="C45" s="11">
-        <v>3</v>
+        <v>52.6</v>
       </c>
       <c r="D45" s="11">
-        <v>52.6</v>
+        <v>0.88</v>
       </c>
       <c r="E45" s="11">
-        <v>0.88</v>
+        <v>600</v>
       </c>
       <c r="F45" s="11">
-        <v>600</v>
-      </c>
-      <c r="G45" s="11">
-        <v>487</v>
-      </c>
-      <c r="H45" s="11">
         <v>655</v>
       </c>
+      <c r="G45" s="16">
+        <v>15.0122</v>
+      </c>
+      <c r="H45" s="12">
+        <v>-38.821813076446233</v>
+      </c>
       <c r="I45" s="11">
-        <v>0.81166666666666665</v>
-      </c>
-      <c r="J45" s="11">
         <v>1.0916666666666666</v>
       </c>
-      <c r="K45" s="11">
-        <v>15.0122</v>
-      </c>
-      <c r="L45" s="12">
-        <v>-38.821813076446233</v>
+      <c r="J45" s="14">
+        <f>I45-F45/E45</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
